--- a/Mau_CauHoi_CauTraLoi_PCCC.xlsx
+++ b/Mau_CauHoi_CauTraLoi_PCCC.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\DỰ ÁN AI PCCC&amp;CNCH\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B00BEF7-0BD0-4D73-B324-B035A0E44E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,25 +148,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +196,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -244,7 +230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,10 +264,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,23 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="3.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.41796875" customWidth="1"/>
-    <col min="5" max="5" width="23.83984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,7 +480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,7 +497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -539,7 +514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -556,7 +531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
